--- a/数据整理/stocks/A股/创业板/300832-新产业.xlsx
+++ b/数据整理/stocks/A股/创业板/300832-新产业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>160921</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>大成多策略混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160921</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成多策略混合(LOF)</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>001984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>上投摩根中国生物医药混合（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>80.80</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.01</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000788</t>
+          <t>010405</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源中国成长灵活配置混合</t>
+          <t>惠升医药健康6个月持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010405</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>惠升医药健康6个月持有期混合</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34.83</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001984</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63.75</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>000788</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>前海开源中国成长灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300832-新产业.xlsx
+++ b/数据整理/stocks/A股/创业板/300832-新产业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300832-新产业.xlsx
+++ b/数据整理/stocks/A股/创业板/300832-新产业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300832-新产业.xlsx
+++ b/数据整理/stocks/A股/创业板/300832-新产业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300832-新产业.xlsx
+++ b/数据整理/stocks/A股/创业板/300832-新产业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.25</v>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.03</v>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010174</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大智享债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010175</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大智享债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300832-新产业.xlsx
+++ b/数据整理/stocks/A股/创业板/300832-新产业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.35</v>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.25</v>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1862,14 +1927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.03</v>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1878,14 +1965,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.75</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="6">
@@ -1894,13 +2103,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300832-新产业.xlsx
+++ b/数据整理/stocks/A股/创业板/300832-新产业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2031</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1618</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.36</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001984</t>
+          <t>002409</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
+          <t>华夏新活力灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>63.75</t>
+          <t>57.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5911</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001766</t>
+          <t>002410</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根医疗健康股票</t>
+          <t>华夏新活力灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.80</t>
+          <t>57.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5418</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010405</t>
+          <t>006644</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>惠升医药健康6个月持有期混合</t>
+          <t>弘毅远方消费升级混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.96</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>34.83</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4238</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -753,111 +753,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>014422</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>弘毅远方消费升级混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1623</t>
+          <t>0.0039</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000788</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源中国成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -872,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -923,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001984</t>
+          <t>001766</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
+          <t>上投摩根医疗健康股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.44</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.30</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7865</t>
+          <t>0.8400</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -961,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001766</t>
+          <t>002708</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根医疗健康股票</t>
+          <t>大摩健康产业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6934</t>
+          <t>0.4477</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -999,36 +923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010405</t>
+          <t>009893</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>惠升医药健康6个月持有期混合</t>
+          <t>摩根士丹利华鑫优悦安和混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>63.29</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6072</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1037,36 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519021</t>
+          <t>010174</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰金鼎价值混合</t>
+          <t>英大智享债券A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.70</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3880</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1075,188 +999,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011598</t>
+          <t>010175</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银医药健康混合</t>
+          <t>英大智享债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2770</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1216</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>020015</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰区位优势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0915</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001626</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰央企改革股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.98</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006354</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰民裕进取灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>61.13</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,7 +1347,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1605,36 +1377,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001766</t>
+          <t>001984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根医疗健康股票</t>
+          <t>上投摩根中国生物医药混合（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>17.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>69.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8400</t>
+          <t>0.7865</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1643,36 +1415,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002708</t>
+          <t>001766</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩健康产业混合</t>
+          <t>上投摩根医疗健康股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>80.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4477</t>
+          <t>0.6934</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1681,36 +1453,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>010405</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>惠升医药健康6个月持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>21.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>63.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.6072</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1719,36 +1491,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010174</t>
+          <t>519021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>英大智享债券A</t>
+          <t>国泰金鼎价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>87.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0274</t>
+          <t>0.3880</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1757,36 +1529,188 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010175</t>
+          <t>011598</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英大智享债券C</t>
+          <t>信达澳银医药健康混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.2770</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1821,7 +1745,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1851,36 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002409</t>
+          <t>001984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新活力灵活配置混合A</t>
+          <t>上投摩根中国生物医药混合（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>57.25</t>
+          <t>63.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.5911</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1889,36 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002410</t>
+          <t>001766</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏新活力灵活配置混合C</t>
+          <t>上投摩根医疗健康股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>57.25</t>
+          <t>80.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.5418</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1927,36 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006644</t>
+          <t>010405</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>弘毅远方消费升级混合</t>
+          <t>惠升医药健康6个月持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.64</t>
+          <t>34.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.4238</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1965,35 +1889,111 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014422</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>弘毅远方消费升级混合C</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.64</t>
+          <t>91.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.1623</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2008,128 +2008,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.36</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300832-新产业.xlsx
+++ b/数据整理/stocks/A股/创业板/300832-新产业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.35</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.25</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>3.03</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -583,6 +600,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016461</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1036,7 +1295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1320,7 +1579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1718,7 +1977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2002,7 +2261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300832-新产业.xlsx
+++ b/数据整理/stocks/A股/创业板/300832-新产业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.35</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.25</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>3.03</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.75</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -600,6 +617,1544 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6530</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014206</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014205</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>50.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>016461</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>017213</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -841,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1049,7 +2604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1295,7 +2850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1579,7 +3134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1977,7 +3532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2261,7 +3816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
